--- a/Examples/rccp/rccp_model.xlsx
+++ b/Examples/rccp/rccp_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\ExIOLab\Examples\rccp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\rccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138AAD17-9231-4943-BBFE-1452337924FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3995F6E5-18F8-406D-82D4-F017F50FF7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1800" windowWidth="22935" windowHeight="12270" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="435" windowWidth="25740" windowHeight="14700" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Exergy" sheetId="3" r:id="rId5"/>
     <sheet name="Format" sheetId="6" r:id="rId6"/>
     <sheet name="ResourcesCost" sheetId="7" r:id="rId7"/>
-    <sheet name="WasteAllocation" sheetId="10" r:id="rId8"/>
-    <sheet name="WasteDefinition" sheetId="8" r:id="rId9"/>
+    <sheet name="WasteDefinition" sheetId="8" r:id="rId8"/>
+    <sheet name="WasteAllocation" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$13</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$6</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$6</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$14</definedName>
     <definedName name="tgas_c0" localSheetId="6">ResourcesCost!$A$1:$B$2</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
@@ -1119,16 +1119,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1147,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,7 +1155,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
@@ -1164,7 +1164,7 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -1181,7 +1181,7 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -1198,7 +1198,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -1215,7 +1215,7 @@
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1232,7 +1232,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -1249,7 +1249,7 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
@@ -1266,7 +1266,7 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
@@ -1283,7 +1283,7 @@
         <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1300,7 +1300,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>90</v>
@@ -1317,7 +1317,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1329,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E11</xm:sqref>
+          <xm:sqref>B2:B11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1783,7 +1783,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1949,42 +1949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DDF650-213E-486D-A892-FC1F58B6D33C}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2038,4 +2007,35 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DDF650-213E-486D-A892-FC1F58B6D33C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>